--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLand.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLand.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD126F-472E-4280-A668-C1DD33C807FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -573,14 +574,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CityCode = ,AND AreaCode = ,AND IrCode = ,AND LandNo1 = ,AND LandNo2 = </t>
+    <t xml:space="preserve">LandLocation = ,AND CityCode = ,AND AreaCode = ,AND IrCode = ,AND LandNo1 = ,AND LandNo2 = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -733,11 +734,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -745,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,16 +756,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,9 +773,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -800,7 +795,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,6 +886,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -926,6 +938,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1101,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -1113,997 +1142,997 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="72.88671875" style="4"/>
+    <col min="8" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>2</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>3</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>5</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>4</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>4</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>150</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="324" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>2</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>9</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="324" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>16</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>2</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>6</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>4</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>16</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>2</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>16</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>2</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>6</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>16</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>2</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>8</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>8</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>6</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>6</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2122,12 +2151,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2139,13 +2168,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2180,7 +2209,7 @@
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLand.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD126F-472E-4280-A668-C1DD33C807FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CD913-AD45-4B4A-BE21-3FD0E2D9DFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateDate</t>
@@ -574,7 +571,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">LandLocation = ,AND CityCode = ,AND AreaCode = ,AND IrCode = ,AND LandNo1 = ,AND LandNo2 = </t>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityCode = ,AND AreaCode = ,AND IrCode = ,AND LandNo1 = ,AND LandNo2 = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -811,9 +811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,9 +851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,26 +886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,26 +921,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1150,14 +1116,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -1167,10 +1133,10 @@
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1178,11 +1144,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="9"/>
@@ -1191,14 +1157,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1206,11 +1172,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="9"/>
@@ -1219,11 +1185,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9"/>
@@ -1232,7 +1198,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
@@ -1243,7 +1209,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -1269,20 +1235,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1290,20 +1256,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="16">
         <v>2</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,13 +1277,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
@@ -1330,20 +1296,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="16">
         <v>3</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1351,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>3</v>
@@ -1364,7 +1330,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>3</v>
@@ -1385,7 +1351,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1393,10 +1359,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>3</v>
@@ -1406,7 +1372,7 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>3</v>
@@ -1427,7 +1393,7 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,10 +1401,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>3</v>
@@ -1448,7 +1414,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="16">
         <v>150</v>
@@ -1475,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>3</v>
@@ -1488,7 +1454,7 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1496,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16">
         <v>9</v>
@@ -1517,10 +1483,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>3</v>
@@ -1530,7 +1496,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="324" x14ac:dyDescent="0.3">
@@ -1538,10 +1504,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>3</v>
@@ -1551,7 +1517,7 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1559,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>3</v>
@@ -1572,7 +1538,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,13 +1546,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16">
         <v>16</v>
@@ -1601,13 +1567,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16">
         <v>6</v>
@@ -1620,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16">
         <v>4</v>
@@ -1639,13 +1605,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16">
         <v>16</v>
@@ -1660,13 +1626,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16">
         <v>16</v>
@@ -1675,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,13 +1649,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16">
         <v>6</v>
@@ -1702,13 +1668,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16">
         <v>16</v>
@@ -1723,13 +1689,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="16">
         <v>8</v>
@@ -1742,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="D32" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="16">
         <v>8</v>
@@ -1761,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="D33" s="16" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -1778,10 +1744,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>3</v>
@@ -1797,13 +1763,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D35" s="16" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1817,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>3</v>
@@ -2180,59 +2146,59 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
